--- a/Team-Data/2014-15/2-7-2014-15.xlsx
+++ b/Team-Data/2014-15/2-7-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>6.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -777,13 +844,13 @@
         <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
         <v>30</v>
@@ -807,7 +874,7 @@
         <v>18</v>
       </c>
       <c r="AY2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
         <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>0.38</v>
+        <v>0.388</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -869,16 +936,16 @@
         <v>87.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L3" t="n">
         <v>7.6</v>
       </c>
       <c r="M3" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="O3" t="n">
         <v>14.9</v>
@@ -887,7 +954,7 @@
         <v>19.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
@@ -899,7 +966,7 @@
         <v>43.5</v>
       </c>
       <c r="U3" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="V3" t="n">
         <v>14.4</v>
@@ -908,25 +975,25 @@
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="n">
         <v>5.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AB3" t="n">
-        <v>101</v>
+        <v>101.2</v>
       </c>
       <c r="AC3" t="n">
         <v>-1.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -938,7 +1005,7 @@
         <v>21</v>
       </c>
       <c r="AH3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
         <v>4</v>
@@ -956,49 +1023,49 @@
         <v>13</v>
       </c>
       <c r="AN3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
         <v>17</v>
       </c>
       <c r="AR3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AS3" t="n">
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
       </c>
       <c r="AX3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -1030,58 +1097,58 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="n">
         <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n">
-        <v>0.42</v>
+        <v>0.429</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="J4" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.448</v>
       </c>
       <c r="L4" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M4" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.32</v>
+        <v>0.322</v>
       </c>
       <c r="O4" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P4" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="R4" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T4" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U4" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V4" t="n">
         <v>14.3</v>
@@ -1102,13 +1169,13 @@
         <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.9</v>
+        <v>-3.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1126,7 +1193,7 @@
         <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
         <v>18</v>
@@ -1144,7 +1211,7 @@
         <v>22</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
         <v>20</v>
@@ -1153,13 +1220,13 @@
         <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
         <v>14</v>
@@ -1171,19 +1238,19 @@
         <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ4" t="n">
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -1212,49 +1279,49 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="n">
         <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>0.44</v>
+        <v>0.449</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J5" t="n">
         <v>84.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.423</v>
+        <v>0.424</v>
       </c>
       <c r="L5" t="n">
         <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.302</v>
+        <v>0.303</v>
       </c>
       <c r="O5" t="n">
         <v>17.3</v>
       </c>
       <c r="P5" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.734</v>
+        <v>0.732</v>
       </c>
       <c r="R5" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S5" t="n">
         <v>33.9</v>
@@ -1269,7 +1336,7 @@
         <v>11.8</v>
       </c>
       <c r="W5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
@@ -1284,13 +1351,13 @@
         <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1302,10 +1369,10 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
         <v>10</v>
@@ -1323,25 +1390,25 @@
         <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
         <v>12</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS5" t="n">
         <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -1394,61 +1461,61 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="n">
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.608</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L6" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M6" t="n">
         <v>21.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="O6" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="P6" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="Q6" t="n">
         <v>0.782</v>
       </c>
       <c r="R6" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S6" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T6" t="n">
         <v>46</v>
       </c>
       <c r="U6" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V6" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W6" t="n">
         <v>6.2</v>
@@ -1460,22 +1527,22 @@
         <v>5.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1484,16 +1551,16 @@
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
@@ -1511,13 +1578,13 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR6" t="n">
         <v>3</v>
       </c>
-      <c r="AR6" t="n">
-        <v>2</v>
-      </c>
       <c r="AS6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -1526,7 +1593,7 @@
         <v>18</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW6" t="n">
         <v>28</v>
@@ -1535,10 +1602,10 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>2.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
@@ -1669,10 +1736,10 @@
         <v>28</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
         <v>14</v>
@@ -1690,7 +1757,7 @@
         <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
         <v>16</v>
@@ -1699,16 +1766,16 @@
         <v>10</v>
       </c>
       <c r="AS7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT7" t="n">
         <v>18</v>
       </c>
       <c r="AU7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
         <v>18</v>
@@ -1720,7 +1787,7 @@
         <v>17</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -1761,64 +1828,64 @@
         <v>52</v>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>0.673</v>
+        <v>0.654</v>
       </c>
       <c r="H8" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="J8" t="n">
-        <v>86.40000000000001</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.467</v>
+        <v>0.469</v>
       </c>
       <c r="L8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="M8" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="N8" t="n">
         <v>0.359</v>
       </c>
       <c r="O8" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P8" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.755</v>
+        <v>0.758</v>
       </c>
       <c r="R8" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T8" t="n">
-        <v>42.5</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
         <v>23.3</v>
       </c>
       <c r="V8" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="W8" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y8" t="n">
         <v>3.6</v>
@@ -1827,61 +1894,61 @@
         <v>19.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>107</v>
+        <v>106.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM8" t="n">
         <v>4</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS8" t="n">
         <v>21</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>20</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>-3.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
         <v>22</v>
@@ -2033,16 +2100,16 @@
         <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
         <v>27</v>
       </c>
       <c r="AL9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM9" t="n">
         <v>12</v>
@@ -2060,7 +2127,7 @@
         <v>22</v>
       </c>
       <c r="AR9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
@@ -2072,7 +2139,7 @@
         <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW9" t="n">
         <v>24</v>
@@ -2090,10 +2157,10 @@
         <v>12</v>
       </c>
       <c r="BB9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>-1.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
         <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
         <v>22</v>
@@ -2251,10 +2318,10 @@
         <v>4</v>
       </c>
       <c r="AU10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
         <v>12</v>
@@ -2269,7 +2336,7 @@
         <v>6</v>
       </c>
       <c r="BA10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="J11" t="n">
-        <v>87</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0.483</v>
@@ -2331,10 +2398,10 @@
         <v>10.5</v>
       </c>
       <c r="M11" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.39</v>
+        <v>0.388</v>
       </c>
       <c r="O11" t="n">
         <v>16.8</v>
@@ -2343,7 +2410,7 @@
         <v>21.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R11" t="n">
         <v>10.5</v>
@@ -2355,7 +2422,7 @@
         <v>45.1</v>
       </c>
       <c r="U11" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="V11" t="n">
         <v>14.9</v>
@@ -2373,16 +2440,16 @@
         <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>111.3</v>
+        <v>111.5</v>
       </c>
       <c r="AC11" t="n">
         <v>11.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2421,7 +2488,7 @@
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR11" t="n">
         <v>20</v>
@@ -2445,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="AY11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ11" t="n">
         <v>14</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
         <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>0.694</v>
+        <v>0.7</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J12" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K12" t="n">
         <v>0.44</v>
@@ -2513,25 +2580,25 @@
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O12" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24</v>
+        <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.72</v>
+        <v>0.718</v>
       </c>
       <c r="R12" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T12" t="n">
         <v>43.4</v>
@@ -2540,7 +2607,7 @@
         <v>21.4</v>
       </c>
       <c r="V12" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="W12" t="n">
         <v>9.800000000000001</v>
@@ -2552,22 +2619,22 @@
         <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
@@ -2597,16 +2664,16 @@
         <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS12" t="n">
         <v>22</v>
@@ -2615,31 +2682,31 @@
         <v>15</v>
       </c>
       <c r="AU12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX12" t="n">
         <v>16</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>-1.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
         <v>22</v>
@@ -2761,13 +2828,13 @@
         <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
         <v>15</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
         <v>22</v>
@@ -2776,7 +2843,7 @@
         <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
         <v>23</v>
@@ -2788,7 +2855,7 @@
         <v>15</v>
       </c>
       <c r="AR13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
@@ -2806,7 +2873,7 @@
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY13" t="n">
         <v>16</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>6.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
         <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
         <v>8</v>
@@ -2979,7 +3046,7 @@
         <v>24</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" t="n">
-        <v>0.265</v>
+        <v>0.26</v>
       </c>
       <c r="H15" t="n">
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>85.90000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="L15" t="n">
         <v>6.8</v>
       </c>
       <c r="M15" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N15" t="n">
         <v>0.349</v>
       </c>
       <c r="O15" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="P15" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R15" t="n">
         <v>11.7</v>
       </c>
       <c r="S15" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="T15" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
         <v>13.3</v>
@@ -3095,22 +3162,22 @@
         <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,16 +3189,16 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
         <v>23</v>
@@ -3155,13 +3222,13 @@
         <v>8</v>
       </c>
       <c r="AS15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
         <v>7</v>
@@ -3170,16 +3237,16 @@
         <v>20</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ15" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA15" t="n">
         <v>18</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>20</v>
       </c>
       <c r="BB15" t="n">
         <v>19</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>5.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,13 +3371,13 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
         <v>8</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3346,7 +3413,7 @@
         <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW16" t="n">
         <v>8</v>
@@ -3364,10 +3431,10 @@
         <v>11</v>
       </c>
       <c r="BB16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -3474,16 +3541,16 @@
         <v>-3.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
         <v>29</v>
@@ -3507,7 +3574,7 @@
         <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP17" t="n">
         <v>14</v>
@@ -3543,13 +3610,13 @@
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>29</v>
       </c>
       <c r="BC17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" t="n">
         <v>23</v>
       </c>
       <c r="G18" t="n">
-        <v>0.549</v>
+        <v>0.54</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
@@ -3596,10 +3663,10 @@
         <v>38</v>
       </c>
       <c r="J18" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L18" t="n">
         <v>7.2</v>
@@ -3608,19 +3675,19 @@
         <v>19</v>
       </c>
       <c r="N18" t="n">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="O18" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P18" t="n">
         <v>20.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R18" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S18" t="n">
         <v>31.1</v>
@@ -3629,22 +3696,22 @@
         <v>41.2</v>
       </c>
       <c r="U18" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V18" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X18" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y18" t="n">
         <v>4.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA18" t="n">
         <v>19.8</v>
@@ -3656,7 +3723,7 @@
         <v>1.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3674,13 +3741,13 @@
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK18" t="n">
         <v>6</v>
       </c>
       <c r="AL18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="n">
         <v>25</v>
@@ -3701,7 +3768,7 @@
         <v>24</v>
       </c>
       <c r="AS18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT18" t="n">
         <v>25</v>
@@ -3731,7 +3798,7 @@
         <v>20</v>
       </c>
       <c r="BC18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-9</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3853,7 +3920,7 @@
         <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="n">
         <v>12</v>
@@ -3877,7 +3944,7 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR19" t="n">
         <v>5</v>
@@ -3892,13 +3959,13 @@
         <v>11</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>7</v>
       </c>
       <c r="AX19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -3945,22 +4012,22 @@
         <v>50</v>
       </c>
       <c r="E20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>38.1</v>
+        <v>38.3</v>
       </c>
       <c r="J20" t="n">
-        <v>83.90000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K20" t="n">
         <v>0.455</v>
@@ -3975,61 +4042,61 @@
         <v>0.349</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P20" t="n">
-        <v>22.2</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.762</v>
       </c>
       <c r="R20" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="S20" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="T20" t="n">
-        <v>44</v>
+        <v>44.5</v>
       </c>
       <c r="U20" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V20" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
         <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
-        <v>100</v>
+        <v>100.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
@@ -4053,49 +4120,49 @@
         <v>16</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP20" t="n">
         <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>0.196</v>
+        <v>0.2</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,19 +4209,19 @@
         <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L21" t="n">
         <v>7.4</v>
       </c>
       <c r="M21" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O21" t="n">
         <v>13.3</v>
@@ -4163,10 +4230,10 @@
         <v>17.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S21" t="n">
         <v>29.2</v>
@@ -4184,13 +4251,13 @@
         <v>7.2</v>
       </c>
       <c r="X21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y21" t="n">
         <v>4.1</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
         <v>18.5</v>
@@ -4199,19 +4266,19 @@
         <v>92.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-7.6</v>
+        <v>-7.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>29</v>
       </c>
       <c r="AF21" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH21" t="n">
         <v>19</v>
@@ -4220,7 +4287,7 @@
         <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK21" t="n">
         <v>23</v>
@@ -4232,7 +4299,7 @@
         <v>20</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>29</v>
@@ -4253,16 +4320,16 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW21" t="n">
         <v>21</v>
       </c>
       <c r="AX21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>16</v>
@@ -4396,16 +4463,16 @@
         <v>16</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
         <v>17</v>
@@ -4417,7 +4484,7 @@
         <v>27</v>
       </c>
       <c r="AO22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP22" t="n">
         <v>13</v>
@@ -4426,7 +4493,7 @@
         <v>18</v>
       </c>
       <c r="AR22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4444,7 +4511,7 @@
         <v>19</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
         <v>12</v>
@@ -4459,7 +4526,7 @@
         <v>18</v>
       </c>
       <c r="BC22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" t="n">
-        <v>0.308</v>
+        <v>0.302</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J23" t="n">
         <v>81.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N23" t="n">
         <v>0.361</v>
@@ -4527,43 +4594,43 @@
         <v>19.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R23" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="U23" t="n">
         <v>20.6</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA23" t="n">
         <v>18.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4578,16 +4645,16 @@
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>20</v>
@@ -4605,19 +4672,19 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="n">
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV23" t="n">
         <v>23</v>
@@ -4629,7 +4696,7 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -4670,67 +4737,67 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" t="n">
         <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>0.231</v>
+        <v>0.216</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="J24" t="n">
-        <v>80.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K24" t="n">
         <v>0.41</v>
       </c>
       <c r="L24" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M24" t="n">
         <v>24.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.31</v>
+        <v>0.308</v>
       </c>
       <c r="O24" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P24" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.681</v>
       </c>
       <c r="R24" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S24" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T24" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U24" t="n">
         <v>20.3</v>
       </c>
       <c r="V24" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="W24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="X24" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y24" t="n">
         <v>5.5</v>
@@ -4742,13 +4809,13 @@
         <v>20.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>89.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.8</v>
+        <v>-11.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4781,10 +4848,10 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4805,16 +4872,16 @@
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
         <v>13</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4948,13 +5015,13 @@
         <v>3</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK25" t="n">
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM25" t="n">
         <v>5</v>
@@ -4963,7 +5030,7 @@
         <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
         <v>25</v>
@@ -4972,10 +5039,10 @@
         <v>2</v>
       </c>
       <c r="AR25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
         <v>19</v>
@@ -4999,7 +5066,7 @@
         <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" t="n">
         <v>34</v>
       </c>
       <c r="F26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" t="n">
-        <v>0.667</v>
+        <v>0.68</v>
       </c>
       <c r="H26" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I26" t="n">
         <v>38.4</v>
       </c>
       <c r="J26" t="n">
-        <v>86.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K26" t="n">
         <v>0.444</v>
@@ -5061,58 +5128,58 @@
         <v>10.1</v>
       </c>
       <c r="M26" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O26" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="P26" t="n">
         <v>19.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.79</v>
+        <v>0.791</v>
       </c>
       <c r="R26" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="S26" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="T26" t="n">
-        <v>46</v>
+        <v>45.7</v>
       </c>
       <c r="U26" t="n">
         <v>22.3</v>
       </c>
       <c r="V26" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W26" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X26" t="n">
         <v>5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB26" t="n">
         <v>102.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
@@ -5121,10 +5188,10 @@
         <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
@@ -5148,7 +5215,7 @@
         <v>27</v>
       </c>
       <c r="AP26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5166,19 +5233,19 @@
         <v>9</v>
       </c>
       <c r="AV26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
         <v>9</v>
       </c>
       <c r="AY26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA26" t="n">
         <v>24</v>
@@ -5187,7 +5254,7 @@
         <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -5216,61 +5283,61 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" t="n">
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="n">
-        <v>0.347</v>
+        <v>0.354</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
       </c>
       <c r="I27" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J27" t="n">
-        <v>80.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L27" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M27" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.326</v>
+        <v>0.327</v>
       </c>
       <c r="O27" t="n">
         <v>23.1</v>
       </c>
       <c r="P27" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.78</v>
+        <v>0.782</v>
       </c>
       <c r="R27" t="n">
         <v>10.9</v>
       </c>
       <c r="S27" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="T27" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U27" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="V27" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W27" t="n">
         <v>6.5</v>
@@ -5282,46 +5349,46 @@
         <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4</v>
+        <v>-3.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>6</v>
       </c>
       <c r="AI27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
       </c>
       <c r="AM27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN27" t="n">
         <v>25</v>
@@ -5333,13 +5400,13 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR27" t="n">
         <v>14</v>
       </c>
       <c r="AS27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT27" t="n">
         <v>8</v>
@@ -5357,7 +5424,7 @@
         <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
         <v>24</v>
@@ -5369,7 +5436,7 @@
         <v>14</v>
       </c>
       <c r="BC27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -5398,61 +5465,61 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F28" t="n">
         <v>18</v>
       </c>
       <c r="G28" t="n">
-        <v>0.633</v>
+        <v>0.64</v>
       </c>
       <c r="H28" t="n">
         <v>48.9</v>
       </c>
       <c r="I28" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J28" t="n">
-        <v>83.2</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="O28" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P28" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R28" t="n">
         <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
         <v>24.4</v>
       </c>
       <c r="V28" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W28" t="n">
         <v>7.6</v>
@@ -5461,7 +5528,7 @@
         <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z28" t="n">
         <v>19.3</v>
@@ -5476,13 +5543,13 @@
         <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
         <v>9</v>
@@ -5494,10 +5561,10 @@
         <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5509,19 +5576,19 @@
         <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT28" t="n">
         <v>11</v>
@@ -5530,7 +5597,7 @@
         <v>5</v>
       </c>
       <c r="AV28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW28" t="n">
         <v>14</v>
@@ -5539,16 +5606,16 @@
         <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ28" t="n">
         <v>9</v>
       </c>
       <c r="BA28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -5658,19 +5725,19 @@
         <v>4.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>5</v>
       </c>
       <c r="AF29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG29" t="n">
         <v>6</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5679,7 +5746,7 @@
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5697,7 +5764,7 @@
         <v>3</v>
       </c>
       <c r="AQ29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR29" t="n">
         <v>12</v>
@@ -5706,7 +5773,7 @@
         <v>26</v>
       </c>
       <c r="AT29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
         <v>19</v>
@@ -5715,7 +5782,7 @@
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -5762,46 +5829,46 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30" t="n">
         <v>33</v>
       </c>
       <c r="G30" t="n">
-        <v>0.353</v>
+        <v>0.34</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J30" t="n">
-        <v>79.5</v>
+        <v>79.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L30" t="n">
         <v>7.2</v>
       </c>
       <c r="M30" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="O30" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P30" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="R30" t="n">
         <v>11.6</v>
@@ -5816,7 +5883,7 @@
         <v>20.2</v>
       </c>
       <c r="V30" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W30" t="n">
         <v>6.9</v>
@@ -5828,19 +5895,19 @@
         <v>4.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="AA30" t="n">
         <v>19.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>-2.5</v>
+        <v>-2.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
         <v>24</v>
@@ -5849,22 +5916,22 @@
         <v>25</v>
       </c>
       <c r="AG30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
       </c>
       <c r="AI30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ30" t="n">
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM30" t="n">
         <v>17</v>
@@ -5885,34 +5952,34 @@
         <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT30" t="n">
         <v>17</v>
       </c>
       <c r="AU30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW30" t="n">
         <v>26</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
         <v>13</v>
       </c>
       <c r="AZ30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA30" t="n">
         <v>25</v>
       </c>
       <c r="BB30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC30" t="n">
         <v>21</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
@@ -5944,37 +6011,37 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" t="n">
         <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>0.615</v>
+        <v>0.608</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J31" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.472</v>
+        <v>0.471</v>
       </c>
       <c r="L31" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="O31" t="n">
         <v>16.2</v>
@@ -5986,16 +6053,16 @@
         <v>0.742</v>
       </c>
       <c r="R31" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S31" t="n">
         <v>33.4</v>
       </c>
       <c r="T31" t="n">
-        <v>43.8</v>
+        <v>43.6</v>
       </c>
       <c r="U31" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="V31" t="n">
         <v>14.8</v>
@@ -6010,22 +6077,22 @@
         <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA31" t="n">
         <v>20.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF31" t="n">
         <v>10</v>
@@ -6034,7 +6101,7 @@
         <v>10</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
@@ -6049,7 +6116,7 @@
         <v>26</v>
       </c>
       <c r="AM31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN31" t="n">
         <v>3</v>
@@ -6064,7 +6131,7 @@
         <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS31" t="n">
         <v>9</v>
@@ -6079,7 +6146,7 @@
         <v>20</v>
       </c>
       <c r="AW31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX31" t="n">
         <v>14</v>
@@ -6088,7 +6155,7 @@
         <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA31" t="n">
         <v>17</v>
@@ -6097,7 +6164,7 @@
         <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-7-2014-15</t>
+          <t>2015-02-07</t>
         </is>
       </c>
     </row>
